--- a/data/input/absenteeism_data_18.xlsx
+++ b/data/input/absenteeism_data_18.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75056</v>
+        <v>91896</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Gabriel Fernandes</t>
+          <t>Juliana Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3693.29</v>
+        <v>7985.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74846</v>
+        <v>83957</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pietro da Conceição</t>
+          <t>Dr. Lucas Gabriel Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>3614.43</v>
+        <v>8674.790000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30507</v>
+        <v>7041</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Pinto</t>
+          <t>Maria Clara Fernandes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>3592.77</v>
+        <v>5109.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80138</v>
+        <v>19416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Sr. Vitor Gabriel da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>5776.63</v>
+        <v>9924.879999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26607</v>
+        <v>94657</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietra Barros</t>
+          <t>Dra. Joana da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>11900.18</v>
+        <v>11425.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4352</v>
+        <v>79442</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiza da Costa</t>
+          <t>Maria Clara Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>9155.280000000001</v>
+        <v>11116.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36934</v>
+        <v>31365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Fernando Viana</t>
+          <t>Dra. Evelyn Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>9333.629999999999</v>
+        <v>10877.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92555</v>
+        <v>32229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Fernanda Lopes</t>
+          <t>Igor da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>3915.57</v>
+        <v>7254.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32013</v>
+        <v>17912</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caroline Alves</t>
+          <t>Sr. Luiz Henrique da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>5831.56</v>
+        <v>4057.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51733</v>
+        <v>83386</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Ferreira</t>
+          <t>Noah Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>3785.17</v>
+        <v>5575.36</v>
       </c>
     </row>
   </sheetData>
